--- a/biology/Zoologie/Halicreatidae/Halicreatidae.xlsx
+++ b/biology/Zoologie/Halicreatidae/Halicreatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Halicreatidae sont une famille de méduses de l'ordre des Trachymedusae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des trachyméduses avec un manubrium large et circulaire. Elles n'ont pas de lèvres distinctes, ni de pédoncule ou de canaux centripètes. On compte huit canaux radiaux assez larges (sauf pour le genre Varitentacula qui n'en a que quatre). Les tentacules marginaux sont nombreux et de longueur variable, mais structurellement semblables et arrangés en série simple. Chaque tentacule marginal porte une portion proximale flexible et une portion distale plus tendue. Les statocystes sont pendants[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des trachyméduses avec un manubrium large et circulaire. Elles n'ont pas de lèvres distinctes, ni de pédoncule ou de canaux centripètes. On compte huit canaux radiaux assez larges (sauf pour le genre Varitentacula qui n'en a que quatre). Les tentacules marginaux sont nombreux et de longueur variable, mais structurellement semblables et arrangés en série simple. Chaque tentacule marginal porte une portion proximale flexible et une portion distale plus tendue. Les statocystes sont pendants.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (2 février 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (2 février 2019) :
 genre Botrynema Browne, 1908
 genre Halicreas Fewkes, 1882
 genre Haliscera Vanhöffen, 1902
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fewkes, 1886 : Report on the medusae collected by the U. S. F. C. Steamer Albatross, in the region of the Gulf Stream, in 1883-84. United States Commission of Fish and Fisheries, vol. 12, pp. 927-980 (texte intégral) (en).</t>
         </is>
